--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_original/ori4/67/correct_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_original/ori4/67/correct_predictions_67.xlsx
@@ -1496,42 +1496,42 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Contact DJI Support if this error persists after restarting</t>
+          <t>Failed to take off</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>12-20</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
+          <t>Failed to take off . Check the USB connection with aircraft . Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Aircraft may be in violation of local laws and regulations</t>
+          <t>Contact DJI Support if this error persists after restarting</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>5-14</t>
+          <t>12-20</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1616,12 +1616,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>May violate local policies and regulations</t>
+          <t>Ensure you have obtained proper airspace authorization</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>5-10</t>
+          <t>12-18</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1646,52 +1646,52 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Ensure you have obtained proper airspace authorization</t>
+          <t>Flight altitude exceeds nnn</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>12-18</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn . May violate local policies and regulations . Ensure you have obtained proper airspace authorization .</t>
+          <t>GPS signal weak . Hovering unstable . Fly with caution .</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>7-9</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1706,22 +1706,22 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Hovering unstable</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>7-9</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1736,12 +1736,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Hovering unstable</t>
+          <t>GPS signal weak</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1757,16 +1757,16 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>GPS signal weak . Hovering unstable . Fly with caution .</t>
+          <t>No GPS signal . Unable to hover . Fly with caution .</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>GPS signal weak</t>
+          <t>No GPS signal</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1796,12 +1796,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>No GPS signal</t>
+          <t>Unable to hover</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_original/ori4/67/correct_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_original/ori4/67/correct_predictions_67.xlsx
@@ -1496,42 +1496,42 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Failed to take off</t>
+          <t>Contact DJI Support if this error persists after restarting</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>12-20</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Failed to take off . Check the USB connection with aircraft . Contact DJI Support if this error persists after restarting .</t>
+          <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Contact DJI Support if this error persists after restarting</t>
+          <t>Aircraft may be in violation of local laws and regulations</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>12-20</t>
+          <t>5-14</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1616,12 +1616,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Ensure you have obtained proper airspace authorization</t>
+          <t>May violate local policies and regulations</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>12-18</t>
+          <t>5-10</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1646,52 +1646,52 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn</t>
+          <t>Ensure you have obtained proper airspace authorization</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>12-18</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>GPS signal weak . Hovering unstable . Fly with caution .</t>
+          <t>Flight altitude exceeds nnn . May violate local policies and regulations . Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Flight altitude exceeds nnn</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>7-9</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1706,22 +1706,22 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Hovering unstable</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>7-9</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1736,12 +1736,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>GPS signal weak</t>
+          <t>Hovering unstable</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1757,16 +1757,16 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>No GPS signal . Unable to hover . Fly with caution .</t>
+          <t>GPS signal weak . Hovering unstable . Fly with caution .</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>No GPS signal</t>
+          <t>GPS signal weak</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1796,12 +1796,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Unable to hover</t>
+          <t>No GPS signal</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
